--- a/src/test/resources/excels/locations.xlsx
+++ b/src/test/resources/excels/locations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25917"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B3800E-6B21-4A2C-95AA-A158F3C3227D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F65C4A-174A-43D6-BE2B-00E4589FBA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>login button</t>
   </si>
   <si>
-    <t>[class='Buttonsstyles__Button-sc-1jwidxo-0 kTwZBr']</t>
+    <t>(//a[text()='Log in'])[1]</t>
   </si>
   <si>
     <t>feature tab</t>
@@ -69,7 +69,7 @@
     <t>resource tab</t>
   </si>
   <si>
-    <t>.Tabsstyles__TabGroup-sc-1grh34k-2.hniXih &gt; button:nth-of-type(1231)</t>
+    <t>(//button[text()='Resources'])[1]</t>
   </si>
 </sst>
 </file>
@@ -131,12 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,10 +167,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -195,8 +193,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6991350" y="0"/>
-          <a:ext cx="7715250" cy="4724400"/>
+          <a:off x="8229600" y="0"/>
+          <a:ext cx="10372725" cy="6353175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -205,7 +203,843 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEE7178-76A0-4F94-B6AC-7BDC6B843942}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9144889A-7692-8E71-882D-DECB6A57982A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16116300" y="409575"/>
+            <a:ext cx="190500" cy="561975"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEE7178-76A0-4F94-B6AC-7BDC6B843942}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9144889A-7692-8E71-882D-DECB6A57982A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16098654" y="391586"/>
+              <a:ext cx="226151" cy="597593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87CC106-D142-40FA-B130-431500CA957E}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EDEE7178-76A0-4F94-B6AC-7BDC6B843942}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16030575" y="1095375"/>
+            <a:ext cx="352425" cy="228600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87CC106-D142-40FA-B130-431500CA957E}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EDEE7178-76A0-4F94-B6AC-7BDC6B843942}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16012576" y="1077735"/>
+              <a:ext cx="388063" cy="264240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAD167E-F1A9-4291-9D14-BB768B39D031}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A87CC106-D142-40FA-B130-431500CA957E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9801225" y="371475"/>
+            <a:ext cx="381000" cy="685800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAD167E-F1A9-4291-9D14-BB768B39D031}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A87CC106-D142-40FA-B130-431500CA957E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9783219" y="353835"/>
+              <a:ext cx="416651" cy="721440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81611D46-6AA2-470C-83FA-5B17986C779E}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9EAD167E-F1A9-4291-9D14-BB768B39D031}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10944225" y="295275"/>
+            <a:ext cx="152400" cy="619125"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81611D46-6AA2-470C-83FA-5B17986C779E}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9EAD167E-F1A9-4291-9D14-BB768B39D031}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10926253" y="277277"/>
+              <a:ext cx="187984" cy="654761"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB54B37-B99E-42F4-9FB9-74FF9246ECE3}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{81611D46-6AA2-470C-83FA-5B17986C779E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11458575" y="266700"/>
+            <a:ext cx="323850" cy="752475"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB54B37-B99E-42F4-9FB9-74FF9246ECE3}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{81611D46-6AA2-470C-83FA-5B17986C779E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11440943" y="248707"/>
+              <a:ext cx="359474" cy="788102"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C427965E-3E7F-44B7-B385-3C99C4BFE947}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8DB54B37-B99E-42F4-9FB9-74FF9246ECE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12172950" y="371475"/>
+            <a:ext cx="333375" cy="638175"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C427965E-3E7F-44B7-B385-3C99C4BFE947}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8DB54B37-B99E-42F4-9FB9-74FF9246ECE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12155328" y="353478"/>
+              <a:ext cx="368978" cy="673809"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F765DEF3-49F4-4879-80C3-B6A6B6A30B3A}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C427965E-3E7F-44B7-B385-3C99C4BFE947}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12982575" y="285750"/>
+            <a:ext cx="133350" cy="381000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F765DEF3-49F4-4879-80C3-B6A6B6A30B3A}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C427965E-3E7F-44B7-B385-3C99C4BFE947}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12964963" y="267761"/>
+              <a:ext cx="168934" cy="416618"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458FBAFE-C82A-4708-A460-E78A002A4C7B}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F765DEF3-49F4-4879-80C3-B6A6B6A30B3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13058775" y="828675"/>
+            <a:ext cx="381000" cy="266700"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458FBAFE-C82A-4708-A460-E78A002A4C7B}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F765DEF3-49F4-4879-80C3-B6A6B6A30B3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13041146" y="810679"/>
+              <a:ext cx="416618" cy="302332"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-22T02:25:11.005"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">38097 2539 16383 0 0,'0'-6'0'0'0,"5"-1"0"0"0,2-4 0 0 0,0-7 0 0 0,-2-5 0 0 0,-1-4 0 0 0,-2-2 0 0 0,0-2 0 0 0,-2-1 0 0 0,0 0 0 0 0,5 6 0 0 0,2 1 0 0 0,0 0 0 0 0,-2-1 0 0 0,-2-1 0 0 0,0-2 0 0 0,-2 0 0 0 0,-1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,7 5 0 0 0,0 2 0 0 0,1 0 0 0 0,-1-2 0 0 0,-3-1 0 0 0,0-1 0 0 0,3 3 0 0 0,2 2 0 0 0,-1-1 0 0 0,-2-2 0 0 0,-1-2 0 0 0,3 5 0 0 0,1 0 0 0 0,-1-1 0 0 0,-2-2 0 0 0,-1-1 0 0 0,-2-2 0 0 0,4-1 0 0 0,2 0 0 0 0,-2-1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 6 0 0 0,-2 11 0 0 0,-5 9 0 0 0,-1 10 0 0 0,2 10 0 0 0,-2 2 0 0 0,1 4 0 0 0,3 3 0 0 0,-4-2 0 0 0,2 0 0 0 0,2 1 0 0 0,3 3 0 0 0,-3 2 0 0 0,0 1 0 0 0,2 1 0 0 0,1 1 0 0 0,-2-5 0 0 0,-1-1 0 0 0,-4-6 0 0 0,0 0 0 0 0,3 2 0 0 0,-3-3 0 0 0,1-10 0 0 0,3-11 0 0 0,8-5 0 0 0,4-7 0 0 0,2-6 0 0 0,-1-4 0 0 0,0-4 0 0 0,-1-2 0 0 0,4 5 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-2 0 0 0,3 5 0 0 0,0 0 0 0 0,4 4 0 0 0,5 5 0 0 0,5 5 0 0 0,4 3 0 0 0,2 4 0 0 0,-3 6 0 0 0,-1 2 0 0 0,0 6 0 0 0,-3 6 0 0 0,-1-1 0 0 0,-4 2 0 0 0,1-2 0 0 0,-3 1 0 0 0,1-3 0 0 0,-1 1 0 0 0,1-2 0 0 0,-2 2 0 0 0,2-3 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 3 0 0 0,2-3 0 0 0,-8-3 0 0 0,-5-3 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-22T02:25:11.006"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">38133 2637 16383 0 0,'6'0'0'0'0,"6"0"0"0"0,8 0 0 0 0,4 0 0 0 0,5 0 0 0 0,-3-6 0 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,2 2 0 0 0,1 2 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-6 4 0 0 0,-7 8 0 0 0,-7 6 0 0 0,-5 6 0 0 0,-9 4 0 0 0,-10-3 0 0 0,-3-1 0 0 0,-4-4 0 0 0,1-1 0 0 0,4 2 0 0 0,-2-3 0 0 0,3 1 0 0 0,-2-4 0 0 0,-5 2 0 0 0,-3-3 0 0 0,2 2 0 0 0,-1 3 0 0 0,-2-2 0 0 0,-2-3 0 0 0,3 0 0 0 0,0-2 0 0 0,-1 2 0 0 0,-2 4 0 0 0,-2-1 0 0 0,-1-4 0 0 0,3 1 0 0 0,2-2 0 0 0,-1-3 0 0 0,-1-3 0 0 0,3 2 0 0 0,1 0 0 0 0,-2 3 0 0 0,-1 1 0 0 0,3 2 0 0 0,-1-1 0 0 0,0-2 0 0 0,-3-4 0 0 0,3 2 0 0 0,1 0 0 0 0,-2-3 0 0 0,9-1 0 0 0,12-3 0 0 0,12-1 0 0 0,10-1 0 0 0,7-1 0 0 0,4-1 0 0 0,3 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-10 0 0 0 0,-9 0 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-22T02:25:11.007"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">23546 1788 16383 0 0,'0'-5'0'0'0,"5"-2"0"0"0,2-5 0 0 0,0-6 0 0 0,4 1 0 0 0,0-3 0 0 0,-2-3 0 0 0,-2-3 0 0 0,2 3 0 0 0,1 1 0 0 0,3-3 0 0 0,0-1 0 0 0,2 4 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-3 0 0 0,-3-1 0 0 0,1 3 0 0 0,-1 1 0 0 0,2-2 0 0 0,5 0 0 0 0,-1-3 0 0 0,1-1 0 0 0,-2-1 0 0 0,-4-1 0 0 0,-5-1 0 0 0,3 6 0 0 0,-2 2 0 0 0,-1-1 0 0 0,-3-1 0 0 0,3 4 0 0 0,1 0 0 0 0,-2-1 0 0 0,-2-2 0 0 0,-1-2 0 0 0,-2-2 0 0 0,-7 4 0 0 0,-7 6 0 0 0,-7 7 0 0 0,-6 5 0 0 0,1 9 0 0 0,0 4 0 0 0,4 7 0 0 0,5 6 0 0 0,0-1 0 0 0,3 3 0 0 0,2 3 0 0 0,-1-3 0 0 0,1 1 0 0 0,-4-4 0 0 0,2 0 0 0 0,-4 3 0 0 0,2 3 0 0 0,3-8 0 0 0,8-7 0 0 0,11-5 0 0 0,8-8 0 0 0,8-3 0 0 0,-1-7 0 0 0,2 0 0 0 0,-5-3 0 0 0,1 1 0 0 0,-4-2 0 0 0,1 3 0 0 0,3-3 0 0 0,2 3 0 0 0,-2-2 0 0 0,1 2 0 0 0,-4-1 0 0 0,1 1 0 0 0,-3-1 0 0 0,-5 7 0 0 0,2 4 0 0 0,-1 10 0 0 0,2 3 0 0 0,-2 6 0 0 0,4 0 0 0 0,-2 3 0 0 0,-3 4 0 0 0,2-1 0 0 0,-1 1 0 0 0,2-4 0 0 0,-1 2 0 0 0,-2 2 0 0 0,2-2 0 0 0,-2 1 0 0 0,3-4 0 0 0,0 2 0 0 0,-4 3 0 0 0,-2-3 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">23171 2069 16383 0 0,'5'0'0'0'0,"7"0"0"0"0,7 0 0 0 0,1 5 0 0 0,1 2 0 0 0,3 0 0 0 0,-2 3 0 0 0,-6 6 0 0 0,-5 6 0 0 0,-4 4 0 0 0,-4 2 0 0 0,-2 3 0 0 0,-7-4 0 0 0,-7-8 0 0 0,-7-5 0 0 0,-6-7 0 0 0,-3-3 0 0 0,3 2 0 0 0,1 0 0 0 0,-1 0 0 0 0,9-2 0 0 0,13-2 0 0 0,13 0 0 0 0,9-1 0 0 0,8-1 0 0 0,5 0 0 0 0,1-1 0 0 0,2 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 5 0 0 0,-1 2 0 0 0,-5 5 0 0 0,-7 6 0 0 0,-7 5 0 0 0,-6 3 0 0 0,-3 4 0 0 0,-3 1 0 0 0,0 1 0 0 0,-7-5 0 0 0,-2-2 0 0 0,-4-5 0 0 0,-5 0 0 0 0,-6-5 0 0 0,2 2 0 0 0,5 2 0 0 0,-1-1 0 0 0,4 0 0 0 0,-2-1 0 0 0,-4-5 0 0 0,3 2 0 0 0,-2-2 0 0 0,2 2 0 0 0,-1-1 0 0 0,-3-3 0 0 0,-3-3 0 0 0,-3-3 0 0 0,-2-1 0 0 0,4-3 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-22T02:25:11.008"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">26021 1539 16383 0 0,'0'-5'0'0'0,"0"-8"0"0"0,0-6 0 0 0,0-5 0 0 0,0-5 0 0 0,0-2 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-5 5 0 0 0,-7 3 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-3 0 0 0,3-1 0 0 0,2 0 0 0 0,-3 3 0 0 0,0 2 0 0 0,0-1 0 0 0,2-1 0 0 0,2-1 0 0 0,1-2 0 0 0,2-1 0 0 0,-1-1 0 0 0,2-1 0 0 0,-6 6 0 0 0,-2 12 0 0 0,1 14 0 0 0,1 13 0 0 0,1 8 0 0 0,2 7 0 0 0,1 4 0 0 0,0 1 0 0 0,1 1 0 0 0,0 0 0 0 0,-5-7 0 0 0,-1-1 0 0 0,-1-11 0 0 0,2-14 0 0 0,2-11 0 0 0,0-11 0 0 0,2-6 0 0 0,1-4 0 0 0,0-2 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-5 5 0 0 0,-1 3 0 0 0,-6 6 0 0 0,5 5 0 0 0,9 6 0 0 0,9 4 0 0 0,8 2 0 0 0,6 2 0 0 0,3 1 0 0 0,-2 6 0 0 0,-6 6 0 0 0,-1 2 0 0 0,-4 3 0 0 0,1-1 0 0 0,-3 1 0 0 0,-3 4 0 0 0,2-3 0 0 0,-1 1 0 0 0,-3-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">25930 1789 16383 0 0,'0'5'0'0'0,"0"7"0"0"0,0 7 0 0 0,0 6 0 0 0,0 3 0 0 0,0 3 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,5-6 0 0 0,7-7 0 0 0,7-7 0 0 0,0 0 0 0 0,1-2 0 0 0,-1 3 0 0 0,0-2 0 0 0,2-1 0 0 0,3-4 0 0 0,3-2 0 0 0,-4 3 0 0 0,0 1 0 0 0,1-1 0 0 0,2-2 0 0 0,1-2 0 0 0,-4-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">26235 1976 16383 0 0,'0'5'0'0'0,"0"8"0"0"0,0 6 0 0 0,0 5 0 0 0,0 5 0 0 0,0 1 0 0 0,0 2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-5 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-22T02:25:11.009"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27493 1649 16383 0 0,'0'-5'0'0'0,"0"-8"0"0"0,0-6 0 0 0,0-6 0 0 0,0-3 0 0 0,-5 2 0 0 0,-2 1 0 0 0,0-1 0 0 0,2-1 0 0 0,1-2 0 0 0,-4 0 0 0 0,0-2 0 0 0,-5 5 0 0 0,0 2 0 0 0,3-1 0 0 0,2-1 0 0 0,4-2 0 0 0,-5 5 0 0 0,1-1 0 0 0,1 0 0 0 0,-3 4 0 0 0,-1-1 0 0 0,3-1 0 0 0,1-3 0 0 0,-2 3 0 0 0,0 0 0 0 0,1-2 0 0 0,2-1 0 0 0,-2 2 0 0 0,-2 1 0 0 0,-3 3 0 0 0,1 1 0 0 0,1-3 0 0 0,4-3 0 0 0,2-3 0 0 0,-3 4 0 0 0,0 0 0 0 0,1-2 0 0 0,2-1 0 0 0,2-2 0 0 0,1-1 0 0 0,1 9 0 0 0,1 13 0 0 0,0 14 0 0 0,0 11 0 0 0,1 7 0 0 0,-1 5 0 0 0,0 3 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-7 0 0 0,-6-6 0 0 0,-7-8 0 0 0,-6-6 0 0 0,-4 3 0 0 0,4 3 0 0 0,5-4 0 0 0,12-4 0 0 0,7-9 0 0 0,9-7 0 0 0,3-9 0 0 0,0 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">27179 740 16383 0 0,'5'0'0'0'0,"8"0"0"0"0,1 6 0 0 0,3 1 0 0 0,0 5 0 0 0,1 0 0 0 0,-1 4 0 0 0,-5 5 0 0 0,2-2 0 0 0,-2 1 0 0 0,2-2 0 0 0,0 0 0 0 0,1-2 0 0 0,5 2 0 0 0,3-4 0 0 0,-1 3 0 0 0,0-2 0 0 0,2-4 0 0 0,-3 2 0 0 0,0-2 0 0 0,-3 3 0 0 0,-5 5 0 0 0,-5-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">27493 2025 16383 0 0,'0'5'0'0'0,"0"8"0"0"0,0 6 0 0 0,-5 0 0 0 0,-2 2 0 0 0,0 4 0 0 0,7-4 0 0 0,9-5 0 0 0,7-5 0 0 0,8-4 0 0 0,4-4 0 0 0,-3 4 0 0 0,1-1 0 0 0,0 0 0 0 0,-4 4 0 0 0,0 0 0 0 0,-4 4 0 0 0,-5 4 0 0 0,0 6 0 0 0,-1 2 0 0 0,-3 4 0 0 0,-4 1 0 0 0,4-4 0 0 0,-1-2 0 0 0,0 0 0 0 0,-3 2 0 0 0,-2 1 0 0 0,-1 1 0 0 0,-7-4 0 0 0,-2-1 0 0 0,-5-5 0 0 0,-6-5 0 0 0,0 0 0 0 0,-3-3 0 0 0,-2-2 0 0 0,-3 2 0 0 0,-3-1 0 0 0,-1-2 0 0 0,4 3 0 0 0,2 0 0 0 0,-2-3 0 0 0,5 4 0 0 0,0-1 0 0 0,-1-3 0 0 0,-3-1 0 0 0,3-9 0 0 0,5-8 0 0 0,6-8 0 0 0,5-2 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">27336 1994 16383 0 0,'6'0'0'0'0,"6"0"0"0"0,7 0 0 0 0,6 0 0 0 0,3 0 0 0 0,3 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,5 0 0 0 0,2 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-2 0 0 0 0,-7-6 0 0 0,-2-1 0 0 0,-1 0 0 0 0,1 2 0 0 0,-4 1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-22T02:25:11.010"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28877 885 16383 0 0,'0'5'0'0'0,"0"8"0"0"0,-5 0 0 0 0,-2 5 0 0 0,0 3 0 0 0,-4-1 0 0 0,0 1 0 0 0,2 3 0 0 0,2 1 0 0 0,3 3 0 0 0,1 2 0 0 0,2 0 0 0 0,1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-6-4 0 0 0,-2-3 0 0 0,0 0 0 0 0,-3-3 0 0 0,-1-1 0 0 0,-4-3 0 0 0,1 0 0 0 0,9-2 0 0 0,4-4 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">28909 1102 16383 0 0,'5'0'0'0'0,"8"0"0"0"0,6 0 0 0 0,6 0 0 0 0,3 0 0 0 0,4 0 0 0 0,0 0 0 0 0,-5 6 0 0 0,-1 1 0 0 0,0-1 0 0 0,-4 5 0 0 0,-1 0 0 0 0,-4 3 0 0 0,1 0 0 0 0,2-3 0 0 0,-2 2 0 0 0,2-1 0 0 0,-3 3 0 0 0,0-2 0 0 0,4-2 0 0 0,-2 1 0 0 0,-5 5 0 0 0,2-1 0 0 0,-9-3 0 0 0,-9-4 0 0 0,-6-3 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">29035 1227 16383 0 0,'0'5'0'0'0,"0"7"0"0"0,5 2 0 0 0,2 3 0 0 0,0 5 0 0 0,-1 3 0 0 0,3-2 0 0 0,1 0 0 0 0,-2 1 0 0 0,-2 3 0 0 0,3-5 0 0 0,0 1 0 0 0,-1 0 0 0 0,-2 3 0 0 0,-3 1 0 0 0,5-3 0 0 0,0-1 0 0 0,-1 1 0 0 0,-2 2 0 0 0,-1 2 0 0 0,3 1 0 0 0,1 1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-1 0 0 0 0,-2 1 0 0 0,-1-1 0 0 0,5-5 0 0 0,1-7 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">29540 2189 16383 0 0,'-5'0'0'0'0,"-8"0"0"0"0,-6 0 0 0 0,-6 0 0 0 0,-4 0 0 0 0,-2 0 0 0 0,4 5 0 0 0,1 2 0 0 0,0 0 0 0 0,-1 4 0 0 0,-1 0 0 0 0,3 3 0 0 0,2 0 0 0 0,4 2 0 0 0,5 4 0 0 0,6 4 0 0 0,3 3 0 0 0,3 2 0 0 0,2 2 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,6-6 0 0 0,7-7 0 0 0,6-7 0 0 0,1 0 0 0 0,1-2 0 0 0,3-3 0 0 0,3-2 0 0 0,2-3 0 0 0,2-1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-6-6 0 0 0,-7-6 0 0 0,-6-7 0 0 0,-12 0 0 0 0,-11 3 0 0 0,-9 4 0 0 0,-6 5 0 0 0,-5 3 0 0 0,-3 2 0 0 0,0 2 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,6 0 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-22T02:25:11.011"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30654 700 16383 0 0,'0'5'0'0'0,"0"8"0"0"0,0 6 0 0 0,0 5 0 0 0,0 4 0 0 0,0 3 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-7 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">30654 793 16383 0 0,'5'0'0'0'0,"7"0"0"0"0,6 0 0 0 0,1 5 0 0 0,1 2 0 0 0,-2 5 0 0 0,1 1 0 0 0,-3 3 0 0 0,1-2 0 0 0,3-2 0 0 0,-2 2 0 0 0,1-2 0 0 0,2-3 0 0 0,-2 3 0 0 0,1-1 0 0 0,-4 3 0 0 0,2-1 0 0 0,-3 2 0 0 0,1 0 0 0 0,-2 1 0 0 0,2-1 0 0 0,-2-4 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">30774 886 16383 0 0,'5'0'0'0'0,"7"0"0"0"0,7 0 0 0 0,-1 6 0 0 0,3 1 0 0 0,-3 4 0 0 0,1 2 0 0 0,-3 3 0 0 0,-4 4 0 0 0,-4 4 0 0 0,-4 3 0 0 0,-2 3 0 0 0,-2 0 0 0 0,0 2 0 0 0,-1 0 0 0 0,0 0 0 0 0,6-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1 4 0 0 0,-2 2 0 0 0,-1 0 0 0 0,0-2 0 0 0,-1-1 0 0 0,0-2 0 0 0,0 0 0 0 0,-1-2 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-11 0 0 0,5-8 0 0 0,2-12 0 0 0,-1-11 0 0 0,-1-9 0 0 0,-1-6 0 0 0,-1-5 0 0 0,-2-1 0 0 0,-1-1 0 0 0,0 5 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-22T02:25:11.012"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#AB008B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30839 1970 16383 0 0,'5'0'0'0'0,"7"0"0"0"0,7 0 0 0 0,6 0 0 0 0,3 0 0 0 0,2 0 0 0 0,2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-5 5 0 0 0,-8 8 0 0 0,-6 6 0 0 0,-5 5 0 0 0,-4 4 0 0 0,-3 3 0 0 0,-6-5 0 0 0,-2-1 0 0 0,0 1 0 0 0,1 1 0 0 0,3 1 0 0 0,1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-5 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2.14748E7">31055 2466 16383 0 0,'5'0'0'0'0,"7"0"0"0"0,7 0 0 0 0,0-6 0 0 0,2-1 0 0 0,3 1 0 0 0,2 0 0 0 0,2 2 0 0 0,2 2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-5-6 0 0 0,-2-1 0 0 0,-11 1 0 0 0,-6 0 0 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,25 +1342,25 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="96" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -534,7 +1368,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -542,7 +1376,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -550,7 +1384,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -558,7 +1392,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -566,7 +1400,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -574,135 +1408,135 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
   </sheetData>
